--- a/exemplo_dados_com_cpf_teste.xlsx
+++ b/exemplo_dados_com_cpf_teste.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRESENTE</t>
+          <t>AUSENTE</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRESENTE</t>
+          <t>AUSENTE</t>
         </is>
       </c>
     </row>

--- a/exemplo_dados_com_cpf_teste.xlsx
+++ b/exemplo_dados_com_cpf_teste.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRESENTE</t>
+          <t>AUSENTE</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSENTE</t>
+          <t>PRESENTE</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AUSENTE</t>
+          <t>PRESENTE</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AUSENTE</t>
+          <t>PRESENTE</t>
         </is>
       </c>
     </row>
